--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.5-20-1.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.5-20-1.xlsx
@@ -441,51 +441,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>186</v>
-      </c>
       <c r="F2">
-        <v>1395</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>813</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>813</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>2574</v>
+        <v>1739</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -493,207 +493,207 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>821</v>
+        <v>157</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>821</v>
+        <v>157</v>
       </c>
       <c r="F4">
-        <v>1065</v>
+        <v>1917</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>988</v>
+        <v>519</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>988</v>
+        <v>519</v>
       </c>
       <c r="F5">
-        <v>1146</v>
+        <v>2351</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1121</v>
+        <v>527</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>1121</v>
+        <v>527</v>
       </c>
       <c r="F6">
-        <v>1317</v>
+        <v>2351</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1302</v>
+        <v>731</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>1302</v>
+        <v>731</v>
       </c>
       <c r="F7">
-        <v>1525</v>
+        <v>836</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1537</v>
+        <v>916</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>1537</v>
+        <v>916</v>
       </c>
       <c r="F8">
-        <v>1794</v>
+        <v>995</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>1589</v>
+        <v>925</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1589</v>
+        <v>925</v>
       </c>
       <c r="F9">
-        <v>2944</v>
+        <v>2062</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1735</v>
+        <v>925</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1735</v>
+        <v>925</v>
       </c>
       <c r="F10">
-        <v>1976</v>
+        <v>2723</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1875</v>
+        <v>1179</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>1875</v>
+        <v>1179</v>
       </c>
       <c r="F11">
-        <v>3568</v>
+        <v>1274</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -701,51 +701,51 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>1927</v>
+        <v>1402</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>1927</v>
+        <v>1402</v>
       </c>
       <c r="F12">
-        <v>3361</v>
+        <v>1509</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>2070</v>
+        <v>1866</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E13">
-        <v>2070</v>
+        <v>1866</v>
       </c>
       <c r="F13">
-        <v>2374</v>
+        <v>3443</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -753,25 +753,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>2075</v>
+        <v>1920</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>2075</v>
+        <v>1920</v>
       </c>
       <c r="F14">
-        <v>2337</v>
+        <v>2000</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -779,48 +779,48 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>2206</v>
+        <v>1984</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2206</v>
+        <v>1984</v>
       </c>
       <c r="F15">
-        <v>2480</v>
+        <v>3151</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>2357</v>
+        <v>2234</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>2357</v>
+        <v>2234</v>
       </c>
       <c r="F16">
-        <v>3495</v>
+        <v>3418</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -831,129 +831,129 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>2452</v>
+        <v>2716</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2452</v>
+        <v>2716</v>
       </c>
       <c r="F17">
-        <v>2651</v>
+        <v>4159</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>2800</v>
+        <v>2878</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2800</v>
+        <v>2878</v>
       </c>
       <c r="F18">
-        <v>4431</v>
+        <v>4664</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2823</v>
+        <v>3242</v>
       </c>
       <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>3242</v>
+      </c>
+      <c r="F19">
+        <v>4905</v>
+      </c>
+      <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>2823</v>
-      </c>
-      <c r="F19">
-        <v>4385</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>2956</v>
+        <v>3265</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20">
-        <v>2956</v>
+        <v>3265</v>
       </c>
       <c r="F20">
-        <v>4100</v>
+        <v>4716</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>3247</v>
+        <v>3435</v>
       </c>
       <c r="C21">
         <v>41</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>3247</v>
+        <v>3435</v>
       </c>
       <c r="F21">
-        <v>3422</v>
+        <v>3519</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>2</v>
